--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N2">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O2">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P2">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q2">
-        <v>7.456000312647668</v>
+        <v>4.71302189482989</v>
       </c>
       <c r="R2">
-        <v>67.10400281382901</v>
+        <v>42.417197053469</v>
       </c>
       <c r="S2">
-        <v>0.006352134362963315</v>
+        <v>0.005354512205017525</v>
       </c>
       <c r="T2">
-        <v>0.007654615423241627</v>
+        <v>0.00696204363877067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P3">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q3">
-        <v>0.3940817659713334</v>
+        <v>0.4656189933304445</v>
       </c>
       <c r="R3">
-        <v>3.546735893742</v>
+        <v>4.190570939974</v>
       </c>
       <c r="S3">
-        <v>0.0003357376907827479</v>
+        <v>0.0005289944834355212</v>
       </c>
       <c r="T3">
-        <v>0.0004045794309725926</v>
+        <v>0.0006878091854746259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N4">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O4">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P4">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q4">
-        <v>7.888499735617001</v>
+        <v>10.92453037636733</v>
       </c>
       <c r="R4">
-        <v>47.33099841370201</v>
+        <v>65.54718225820399</v>
       </c>
       <c r="S4">
-        <v>0.006720601950329835</v>
+        <v>0.01241147029223697</v>
       </c>
       <c r="T4">
-        <v>0.00539909059464161</v>
+        <v>0.01075842759494052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I5">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J5">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N5">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O5">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P5">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q5">
-        <v>439.8121982467859</v>
+        <v>235.2970396929499</v>
       </c>
       <c r="R5">
-        <v>3958.309784221073</v>
+        <v>2117.673357236549</v>
       </c>
       <c r="S5">
-        <v>0.3746977012587822</v>
+        <v>0.2673233647020576</v>
       </c>
       <c r="T5">
-        <v>0.4515280438385812</v>
+        <v>0.3475791742476084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J6">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P6">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q6">
         <v>23.24597109885045</v>
@@ -824,10 +824,10 @@
         <v>209.213739889654</v>
       </c>
       <c r="S6">
-        <v>0.01980438916653218</v>
+        <v>0.02640998466457834</v>
       </c>
       <c r="T6">
-        <v>0.02386520405580597</v>
+        <v>0.03433878917331869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N7">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O7">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P7">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q7">
-        <v>465.3243379973623</v>
+        <v>545.4058383252473</v>
       </c>
       <c r="R7">
-        <v>2791.946027984174</v>
+        <v>3272.435029951484</v>
       </c>
       <c r="S7">
-        <v>0.3964327512570314</v>
+        <v>0.619641131140079</v>
       </c>
       <c r="T7">
-        <v>0.3184798556050012</v>
+        <v>0.5371131773475065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H8">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I8">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J8">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N8">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O8">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P8">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q8">
-        <v>18.12587629810334</v>
+        <v>9.356181133668445</v>
       </c>
       <c r="R8">
-        <v>163.13288668293</v>
+        <v>84.20563020301599</v>
       </c>
       <c r="S8">
-        <v>0.01544232790557895</v>
+        <v>0.01062965273459452</v>
       </c>
       <c r="T8">
-        <v>0.01860871867667102</v>
+        <v>0.01382088664096767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H9">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I9">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J9">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P9">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q9">
-        <v>0.9580307191266669</v>
+        <v>0.9243359649262223</v>
       </c>
       <c r="R9">
-        <v>8.622276472140001</v>
+        <v>8.319023684335999</v>
       </c>
       <c r="S9">
-        <v>0.0008161936154181769</v>
+        <v>0.001050147509639937</v>
       </c>
       <c r="T9">
-        <v>0.0009835510207968506</v>
+        <v>0.001365422751751045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H10">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I10">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J10">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N10">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O10">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P10">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q10">
-        <v>19.17730209089</v>
+        <v>21.68712288684266</v>
       </c>
       <c r="R10">
-        <v>115.06381254534</v>
+        <v>130.122737321056</v>
       </c>
       <c r="S10">
-        <v>0.01633808939007579</v>
+        <v>0.02463896132472885</v>
       </c>
       <c r="T10">
-        <v>0.01312543510422349</v>
+        <v>0.02135737951952663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H11">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I11">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J11">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N11">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O11">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P11">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q11">
-        <v>6.174292803046001</v>
+        <v>4.756841853948334</v>
       </c>
       <c r="R11">
-        <v>37.045756818276</v>
+        <v>28.54105112369</v>
       </c>
       <c r="S11">
-        <v>0.005260184527446509</v>
+        <v>0.005404296507140217</v>
       </c>
       <c r="T11">
-        <v>0.004225843610157856</v>
+        <v>0.004684516121351395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H12">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I12">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J12">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.047822</v>
       </c>
       <c r="O12">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P12">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q12">
-        <v>0.3263379975080001</v>
+        <v>0.4699481489566668</v>
       </c>
       <c r="R12">
-        <v>1.958027985048</v>
+        <v>2.81968889374</v>
       </c>
       <c r="S12">
-        <v>0.0002780234336088823</v>
+        <v>0.0005339128812608009</v>
       </c>
       <c r="T12">
-        <v>0.0002233540561666522</v>
+        <v>0.0004628027896616853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H13">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I13">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J13">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N13">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O13">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P13">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q13">
-        <v>6.532444353822001</v>
+        <v>11.02610267651</v>
       </c>
       <c r="R13">
-        <v>26.129777415288</v>
+        <v>44.10441070603999</v>
       </c>
       <c r="S13">
-        <v>0.00556531149598669</v>
+        <v>0.01252686761755011</v>
       </c>
       <c r="T13">
-        <v>0.00298064778287287</v>
+        <v>0.007238970354657197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H14">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I14">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J14">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3015963333333334</v>
+        <v>0.1613523333333333</v>
       </c>
       <c r="N14">
-        <v>0.9047890000000001</v>
+        <v>0.484057</v>
       </c>
       <c r="O14">
-        <v>0.4737402899861982</v>
+        <v>0.2926766298022186</v>
       </c>
       <c r="P14">
-        <v>0.5687660179545673</v>
+        <v>0.3782017374917083</v>
       </c>
       <c r="Q14">
-        <v>84.49791627159301</v>
+        <v>3.489805553101</v>
       </c>
       <c r="R14">
-        <v>760.4812464443371</v>
+        <v>31.408249977909</v>
       </c>
       <c r="S14">
-        <v>0.07198794193142717</v>
+        <v>0.003964803653408806</v>
       </c>
       <c r="T14">
-        <v>0.08674879640591558</v>
+        <v>0.005155116843010192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H15">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I15">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J15">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.047822</v>
       </c>
       <c r="O15">
-        <v>0.02503921704145383</v>
+        <v>0.02891473894686308</v>
       </c>
       <c r="P15">
-        <v>0.03006173650500096</v>
+        <v>0.03736411928828315</v>
       </c>
       <c r="Q15">
-        <v>4.466079220614001</v>
+        <v>0.344772374246</v>
       </c>
       <c r="R15">
-        <v>40.194712985526</v>
+        <v>3.102951368214</v>
       </c>
       <c r="S15">
-        <v>0.003804873135111844</v>
+        <v>0.000391699407948477</v>
       </c>
       <c r="T15">
-        <v>0.004585047941258896</v>
+        <v>0.0005092953880770931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H16">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I16">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J16">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.319091</v>
+        <v>0.3740059999999999</v>
       </c>
       <c r="N16">
-        <v>0.638182</v>
+        <v>0.7480119999999999</v>
       </c>
       <c r="O16">
-        <v>0.5012204929723481</v>
+        <v>0.6784086312509182</v>
       </c>
       <c r="P16">
-        <v>0.4011722455404317</v>
+        <v>0.5844341432200085</v>
       </c>
       <c r="Q16">
-        <v>89.39937797990102</v>
+        <v>8.089180916873998</v>
       </c>
       <c r="R16">
-        <v>536.3962678794061</v>
+        <v>48.53508550124399</v>
       </c>
       <c r="S16">
-        <v>0.07616373887892433</v>
+        <v>0.009190200876323327</v>
       </c>
       <c r="T16">
-        <v>0.06118721645369254</v>
+        <v>0.007966188403377577</v>
       </c>
     </row>
   </sheetData>
